--- a/intro-AI/Lab/Experiment 1/crowd_computing.xlsx
+++ b/intro-AI/Lab/Experiment 1/crowd_computing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AY2021-22\ODD SEM\Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Volt\Code\AIML-Year-2\intro-AI\Lab\Experiment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7024093A-1960-274F-A1FF-8C379A73AACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABED00D-7612-4663-8EA5-185A668C6911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Person's Guess</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,588 +345,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:A76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A75" sqref="A1:A75"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>189</v>
       </c>
-      <c r="D8">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>190</v>
       </c>
-      <c r="D9">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>193</v>
       </c>
-      <c r="D10">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>200</v>
       </c>
-      <c r="D11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>201</v>
-      </c>
-      <c r="D12">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>201</v>
       </c>
-      <c r="D13">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>210</v>
       </c>
-      <c r="D14">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>214</v>
       </c>
-      <c r="D15">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>218</v>
       </c>
-      <c r="D16">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>223</v>
-      </c>
-      <c r="D17">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>223</v>
       </c>
-      <c r="D18">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>232</v>
       </c>
-      <c r="D19">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>234</v>
-      </c>
-      <c r="D20">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>234</v>
       </c>
-      <c r="D21">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>238</v>
       </c>
-      <c r="D22">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>243</v>
       </c>
-      <c r="D23">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>247</v>
       </c>
-      <c r="D24">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>250</v>
       </c>
-      <c r="D25">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>261</v>
       </c>
-      <c r="D26">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>273</v>
       </c>
-      <c r="D27">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>280</v>
       </c>
-      <c r="D28">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>289</v>
       </c>
-      <c r="D29">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>290</v>
       </c>
-      <c r="D30">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>300</v>
       </c>
-      <c r="D31">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>311</v>
       </c>
-      <c r="D32">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>321</v>
-      </c>
-      <c r="D33">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>321</v>
       </c>
-      <c r="D34">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>321</v>
       </c>
-      <c r="D35">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>321</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>334</v>
       </c>
-      <c r="D36">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>340</v>
-      </c>
-      <c r="D37">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>340</v>
       </c>
-      <c r="D38">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>340</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>342</v>
       </c>
-      <c r="D39">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>345</v>
-      </c>
-      <c r="D40">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>345</v>
       </c>
-      <c r="D41">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>356</v>
       </c>
-      <c r="D42">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>376</v>
       </c>
-      <c r="D43">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>380</v>
       </c>
-      <c r="D44">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>390</v>
       </c>
-      <c r="D45">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>392</v>
       </c>
-      <c r="D46">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>400</v>
       </c>
-      <c r="D47">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>450</v>
       </c>
-      <c r="D48">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>455</v>
       </c>
-      <c r="D49">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>456</v>
-      </c>
-      <c r="D50">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>456</v>
       </c>
-      <c r="D51">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>456</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>459</v>
       </c>
-      <c r="D52">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>480</v>
       </c>
-      <c r="D53">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>497</v>
       </c>
-      <c r="D54">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>500</v>
-      </c>
-      <c r="D55">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>500</v>
       </c>
-      <c r="D56">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>540</v>
       </c>
-      <c r="D57">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>542</v>
       </c>
-      <c r="D58">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>543</v>
       </c>
-      <c r="D59">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>546</v>
       </c>
-      <c r="D60">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>560</v>
       </c>
-      <c r="D61">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>564</v>
       </c>
-      <c r="D62">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>567</v>
-      </c>
-      <c r="D63">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>567</v>
       </c>
-      <c r="D64">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>567</v>
       </c>
-      <c r="D65">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>567</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>667</v>
       </c>
-      <c r="D66">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>670</v>
-      </c>
-      <c r="D67">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>670</v>
       </c>
-      <c r="D68">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>670</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>890</v>
       </c>
-      <c r="D69">
-        <f>AVERAGE(D8:D68)</f>
-        <v>368.90163934426232</v>
-      </c>
-      <c r="E69">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>1000</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>1200</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>1300</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>928</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>1000</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <f>AVERAGE(A1:A75)</f>
-        <v>407.09333333333331</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A75">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A76">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
